--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>nopol</t>
   </si>
@@ -35,49 +35,13 @@
     <t>keterangan</t>
   </si>
   <si>
-    <t>D-4726-AA</t>
+    <t>D-1234-CTH</t>
   </si>
   <si>
     <t>2020-09-15</t>
   </si>
   <si>
     <t>2020-12-15</t>
-  </si>
-  <si>
-    <t>D-2617-AA</t>
-  </si>
-  <si>
-    <t>D-2123-AA</t>
-  </si>
-  <si>
-    <t>D-2918-AA</t>
-  </si>
-  <si>
-    <t>D-2910-AA</t>
-  </si>
-  <si>
-    <t>D-2828-AA</t>
-  </si>
-  <si>
-    <t>D-2983-AA</t>
-  </si>
-  <si>
-    <t>D-2928-AA</t>
-  </si>
-  <si>
-    <t>D-2942-AA</t>
-  </si>
-  <si>
-    <t>D-1984-AA</t>
-  </si>
-  <si>
-    <t>D-2938-AA</t>
-  </si>
-  <si>
-    <t>D-2857-AA</t>
-  </si>
-  <si>
-    <t>D-8574-AA</t>
   </si>
 </sst>
 </file>
@@ -119,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,28 +121,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -195,15 +144,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1287,13 +1227,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.2734" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.1719" style="1" customWidth="1"/>
@@ -1347,258 +1287,6 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C11" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3</v>
-      </c>
-      <c r="F12" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="B14" s="7">
-        <v>150000</v>
-      </c>
-      <c r="C14" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7">
-        <v>450000</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
